--- a/data/teaching-hu.xlsx
+++ b/data/teaching-hu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\team-students\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3697F0-9E2B-479E-9477-4AEB1FFAEE58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228C6C62-6DDD-437B-9226-0C643B1257B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10245" yWindow="8002" windowWidth="20715" windowHeight="13425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teach" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="186">
   <si>
     <t>计量经济学</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -766,6 +766,24 @@
   <si>
     <t>year.term</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年秋</t>
+  </si>
+  <si>
+    <t>统计学原理</t>
+  </si>
+  <si>
+    <t>理论课</t>
+  </si>
+  <si>
+    <t>2018农经1-2</t>
+  </si>
+  <si>
+    <t>实验课</t>
+  </si>
+  <si>
+    <t>2018营销1-2</t>
   </si>
 </sst>
 </file>
@@ -1235,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2548,6 +2566,146 @@
         <v>33</v>
       </c>
     </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" s="1">
+        <v>48</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2018</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="1">
+        <v>32</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2018</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2</v>
+      </c>
+      <c r="K39" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F40" s="1">
+        <v>48</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2018</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2</v>
+      </c>
+      <c r="K40" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" s="1">
+        <v>32</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2018</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2</v>
+      </c>
+      <c r="K41" s="1">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2559,7 +2717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/data/teaching-hu.xlsx
+++ b/data/teaching-hu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\team-students\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228C6C62-6DDD-437B-9226-0C643B1257B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA9CBA7-9CB3-4E43-A0C0-F5D31C1F7A2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="194">
   <si>
     <t>计量经济学</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -784,6 +784,38 @@
   </si>
   <si>
     <t>2018营销1-2</t>
+  </si>
+  <si>
+    <t>多重作用机制下农业物联网技术扩散效果影响因素分析--以陕西猕猴桃种植户为例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祎霖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业经济管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wyl2001@nwafu.edu.cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年春</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018金融3-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年春</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019金融1-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -883,7 +915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,6 +944,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1253,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2706,6 +2741,146 @@
         <v>24</v>
       </c>
     </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="3">
+        <v>48</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2018</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2</v>
+      </c>
+      <c r="K42" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="3">
+        <v>32</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2018</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2</v>
+      </c>
+      <c r="K43" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="3">
+        <v>48</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2019</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2</v>
+      </c>
+      <c r="K44" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="3">
+        <v>16</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2019</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2</v>
+      </c>
+      <c r="K45" s="3">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2715,17 +2890,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="82.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.25" style="1" bestFit="1" customWidth="1"/>
@@ -3157,6 +3333,38 @@
         <v>43221</v>
       </c>
     </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J13" s="10">
+        <v>43952</v>
+      </c>
+      <c r="K13" s="10">
+        <v>44378</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -3169,7 +3377,9 @@
     <hyperlink ref="F10" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
     <hyperlink ref="F11" r:id="rId8" xr:uid="{9CD1F390-8109-4690-AE45-118A50F12E0D}"/>
     <hyperlink ref="F12" r:id="rId9" xr:uid="{EF2FFABB-18C0-446B-A6EA-313BF7199A18}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{5581558F-33EA-4917-B636-BC8FA5C0C9E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>